--- a/wxdgaming.game.basic/src/main/cfg/玩家信息.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/玩家信息.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="q_player" sheetId="4" r:id="rId1"/>
@@ -95,253 +95,253 @@
     <t>属性</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":100}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":100}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":100}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":101}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":101}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":101}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":102}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":102}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":102}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":103}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":103}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":103}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":104}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":104}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":104}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":105}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":105}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":105}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":106}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":106}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":106}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":107}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":107}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":107}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":108}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":108}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":108}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":109}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":109}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":109}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":110}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":110}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":110}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":111}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":111}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":111}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":112}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":112}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":112}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":113}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":113}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":113}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":114}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":114}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":114}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":115}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":115}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":115}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":116}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":116}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":116}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":117}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":117}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":117}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":118}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":118}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":118}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":119}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":119}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":119}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":120}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":120}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":120}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":121}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":121}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":121}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":122}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":122}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":122}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":123}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":123}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":123}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":124}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":124}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":124}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":125}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":125}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":125}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":126}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":126}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":126}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":127}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":127}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":127}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":128}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":128}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":128}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":129}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":129}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":129}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":130}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":130}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":130}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":131}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":131}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":131}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":132}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":132}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":132}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":133}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":133}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":133}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":134}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":134}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":134}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":135}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":135}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":135}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":136}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":136}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":136}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":137}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":137}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":137}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":138}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":138}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":138}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":139}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":139}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":139}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":140}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":140}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":140}</t>
   </si>
   <si>
-    <t>{"MAXHP":10000,"体力":100,"攻击":100,"防御":141}</t>
+    <t>{"MAXHP":10000,"MAXMP":10000,"体力":100,"攻击":100,"防御":141}</t>
   </si>
   <si>
     <t>{"MAXHP":106,"体力":100,"攻击":100,"防御":141}</t>
@@ -1050,6 +1050,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1313,7 +1320,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>

--- a/wxdgaming.game.basic/src/main/cfg/玩家信息.xlsx
+++ b/wxdgaming.game.basic/src/main/cfg/玩家信息.xlsx
@@ -83,7 +83,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.game.bean.attr.AttrInfo</t>
+    <t>wxdgaming.game.server.bean.attr.AttrInfo</t>
   </si>
   <si>
     <t>主键id/等级</t>
@@ -1050,13 +1050,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,7 +1313,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
